--- a/Morphology/TL_Trans_Morphology/TL_Trans_Calice_Density.xlsx
+++ b/Morphology/TL_Trans_Morphology/TL_Trans_Calice_Density.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/Morphology/TL_Trans_Morphology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F352643-7D4B-0845-81A5-948C7E5A750E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41815930-E70B-EF4B-A695-51E224C88D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14320"/>
+    <workbookView xWindow="7240" yWindow="500" windowWidth="18000" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TL_Trans_Calice_Density" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
-  <si>
-    <t>Label</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Area</t>
   </si>
@@ -31,9 +28,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Calice_Density</t>
-  </si>
-  <si>
     <t>OFAV_PP_0GT1</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>OFAV_PP_362</t>
   </si>
   <si>
-    <t>OFAV_PP_364</t>
-  </si>
-  <si>
     <t>OFAV_PP_365</t>
   </si>
   <si>
@@ -157,9 +148,6 @@
     <t>OFAV_PP_DW</t>
   </si>
   <si>
-    <t>OFAV_PS_0HS12</t>
-  </si>
-  <si>
     <t>OFAV_PS_0HS2</t>
   </si>
   <si>
@@ -304,9 +292,6 @@
     <t>OFAV_SP_2AZ7_P4</t>
   </si>
   <si>
-    <t>OFAV_SP_2EV24</t>
-  </si>
-  <si>
     <t>OFAV_SP_2JQ31</t>
   </si>
   <si>
@@ -325,9 +310,6 @@
     <t>OFAV_SP_3EV30_P3</t>
   </si>
   <si>
-    <t>OFAV_SP_3JQ1</t>
-  </si>
-  <si>
     <t>OFAV_SP_3JQ1_P2</t>
   </si>
   <si>
@@ -430,9 +412,6 @@
     <t>OFAV_SS_3JQ1_P2</t>
   </si>
   <si>
-    <t>OFAV_SS_4243</t>
-  </si>
-  <si>
     <t>OFAV_SS_4DW11</t>
   </si>
   <si>
@@ -460,24 +439,15 @@
     <t>OFAV_SS_9AZ7</t>
   </si>
   <si>
-    <t>OFAV_SS_9AZ81</t>
-  </si>
-  <si>
     <t>OFAV_SS_9AZ81_P1</t>
   </si>
   <si>
-    <t>OFAV_SS_9DW37</t>
-  </si>
-  <si>
     <t>OFAV_SS_9DW37_P1</t>
   </si>
   <si>
     <t>OFAV_SS_9DW37_P2</t>
   </si>
   <si>
-    <t>OFAV_SS_9EV2</t>
-  </si>
-  <si>
     <t>OFAV_SS_9EV2_P1</t>
   </si>
   <si>
@@ -586,15 +556,9 @@
     <t>OFRA_PP_9CX5_P2</t>
   </si>
   <si>
-    <t>OFRA_PP_9GT30 P1</t>
-  </si>
-  <si>
     <t>OFRA_PP_9GT30_P2</t>
   </si>
   <si>
-    <t>OFRA_PP_9GX5_P1</t>
-  </si>
-  <si>
     <t>OFRA_PS_0CX4</t>
   </si>
   <si>
@@ -698,12 +662,27 @@
   </si>
   <si>
     <t>OFRA_PS_9GT47</t>
+  </si>
+  <si>
+    <t>colony_id</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>OFRA_PP_9GT30_P1</t>
+  </si>
+  <si>
+    <t>OFAV_SP_3JQ1_P1</t>
+  </si>
+  <si>
+    <t>OFAV_PS_2HS12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1537,11 +1516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E223"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1555,16 +1534,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1572,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1.7669999999999999</v>
@@ -1589,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1.4590000000000001</v>
@@ -1606,7 +1585,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1.65</v>
@@ -1623,7 +1602,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1.766</v>
@@ -1640,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2.649</v>
@@ -1657,7 +1636,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1.3620000000000001</v>
@@ -1674,7 +1653,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>1.732</v>
@@ -1691,7 +1670,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>1.619</v>
@@ -1708,7 +1687,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>1.464</v>
@@ -1725,7 +1704,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>1.7130000000000001</v>
@@ -1742,7 +1721,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>0.93899999999999995</v>
@@ -1759,7 +1738,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1.7509999999999999</v>
@@ -1776,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>1.19</v>
@@ -1793,7 +1772,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>1.1080000000000001</v>
@@ -1810,7 +1789,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>1.0309999999999999</v>
@@ -1827,7 +1806,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>1.383</v>
@@ -1841,3503 +1820,3384 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>1.232</v>
+        <v>1.177</v>
       </c>
       <c r="D18">
         <v>10</v>
       </c>
       <c r="E18">
-        <v>8.1170000000000009</v>
+        <v>8.4960000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>1.177</v>
+        <v>1.8759999999999999</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>8.4960000000000004</v>
+        <v>7.9960000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>1.8759999999999999</v>
+        <v>1.766</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>7.9960000000000004</v>
+        <v>6.2290000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>1.766</v>
+        <v>2.0590000000000002</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E21">
-        <v>6.2290000000000001</v>
+        <v>8.2560000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <v>2.0590000000000002</v>
+        <v>1.1890000000000001</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>8.2560000000000002</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23">
-        <v>1.1890000000000001</v>
+        <v>2.0129999999999999</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>8.41</v>
+        <v>6.4580000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <v>2.0129999999999999</v>
+        <v>1.8420000000000001</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>6.4580000000000002</v>
+        <v>6.5149999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>1.8420000000000001</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>6.5149999999999997</v>
+        <v>7.2460000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>0.82799999999999996</v>
+        <v>1.21</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>7.2460000000000004</v>
+        <v>6.6120000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
       <c r="C27">
-        <v>1.21</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27">
-        <v>6.6120000000000001</v>
+        <v>7.5190000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
       <c r="C28">
-        <v>1.0640000000000001</v>
+        <v>1.595</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>7.5190000000000001</v>
+        <v>5.6429999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
       <c r="C29">
-        <v>1.595</v>
+        <v>1.5129999999999999</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E29">
-        <v>5.6429999999999998</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
       <c r="C30">
-        <v>1.5129999999999999</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>7.27</v>
+        <v>6.952</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
       <c r="C31">
-        <v>0.86299999999999999</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>6.952</v>
+        <v>11.249000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
       <c r="C32">
-        <v>0.88900000000000001</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>11.249000000000001</v>
+        <v>9.0440000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
       <c r="C33">
-        <v>0.77400000000000002</v>
+        <v>1.05</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>9.0440000000000005</v>
+        <v>9.5239999999999991</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
       <c r="C34">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34">
-        <v>9.5239999999999991</v>
+        <v>6.8419999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
       <c r="C35">
-        <v>1.9</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E35">
-        <v>6.8419999999999996</v>
+        <v>6.1619999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
       <c r="C36">
-        <v>1.7849999999999999</v>
+        <v>1.6479999999999999</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E36">
-        <v>6.1619999999999999</v>
+        <v>8.4949999999999992</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
       <c r="C37">
-        <v>1.6479999999999999</v>
+        <v>1.143</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>8.4949999999999992</v>
+        <v>10.499000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
       <c r="C38">
-        <v>1.143</v>
+        <v>1.1990000000000001</v>
       </c>
       <c r="D38">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>10.499000000000001</v>
+        <v>7.5060000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
       <c r="C39">
-        <v>1.1990000000000001</v>
+        <v>1.2110000000000001</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39">
-        <v>7.5060000000000002</v>
+        <v>6.6059999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
       <c r="C40">
-        <v>1.2110000000000001</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40">
-        <v>6.6059999999999999</v>
+        <v>6.1769999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
       <c r="C41">
-        <v>1.4570000000000001</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E41">
-        <v>6.1769999999999996</v>
+        <v>9.3390000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="C42">
-        <v>1.3919999999999999</v>
+        <v>1.046</v>
       </c>
       <c r="D42">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>9.3390000000000004</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C43">
-        <v>1.046</v>
+        <v>2.5539999999999998</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E43">
-        <v>9.56</v>
+        <v>8.2219999999999995</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C44">
-        <v>2.5539999999999998</v>
+        <v>1.9630000000000001</v>
       </c>
       <c r="D44">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E44">
-        <v>8.2219999999999995</v>
+        <v>11.207000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C45">
-        <v>1.9630000000000001</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="D45">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>11.207000000000001</v>
+        <v>8.4640000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C46">
-        <v>0.82699999999999996</v>
+        <v>1.1559999999999999</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>8.4640000000000004</v>
+        <v>8.6509999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C47">
-        <v>1.1559999999999999</v>
+        <v>2.1230000000000002</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E47">
-        <v>8.6509999999999998</v>
+        <v>9.8919999999999995</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C48">
-        <v>2.1230000000000002</v>
+        <v>1.8129999999999999</v>
       </c>
       <c r="D48">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E48">
-        <v>9.8919999999999995</v>
+        <v>8.2739999999999991</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C49">
-        <v>1.8129999999999999</v>
+        <v>1.4119999999999999</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E49">
-        <v>8.2739999999999991</v>
+        <v>9.2070000000000007</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C50">
-        <v>1.4119999999999999</v>
+        <v>1.4530000000000001</v>
       </c>
       <c r="D50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E50">
-        <v>9.2070000000000007</v>
+        <v>9.6349999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C51">
-        <v>1.4530000000000001</v>
+        <v>1.4810000000000001</v>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <v>9.6349999999999998</v>
+        <v>6.7519999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C52">
-        <v>1.4810000000000001</v>
+        <v>2.0409999999999999</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E52">
-        <v>6.7519999999999998</v>
+        <v>7.8390000000000004</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C53">
-        <v>2.0409999999999999</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E53">
-        <v>7.8390000000000004</v>
+        <v>8.0860000000000003</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C54">
-        <v>0.74199999999999999</v>
+        <v>1.3160000000000001</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E54">
-        <v>8.0860000000000003</v>
+        <v>12.917999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C55">
-        <v>1.3160000000000001</v>
+        <v>1.2629999999999999</v>
       </c>
       <c r="D55">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E55">
-        <v>12.917999999999999</v>
+        <v>10.292999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C56">
-        <v>1.2629999999999999</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="D56">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E56">
-        <v>10.292999999999999</v>
+        <v>8.1880000000000006</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C57">
-        <v>0.97699999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57">
-        <v>8.1880000000000006</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C58">
-        <v>0.7</v>
+        <v>1.4490000000000001</v>
       </c>
       <c r="D58">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>6.9009999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C59">
-        <v>1.4490000000000001</v>
+        <v>1.4379999999999999</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59">
-        <v>6.9009999999999998</v>
+        <v>9.0399999999999991</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C60">
-        <v>1.4379999999999999</v>
+        <v>2.5339999999999998</v>
       </c>
       <c r="D60">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E60">
-        <v>9.0399999999999991</v>
+        <v>7.8929999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C61">
-        <v>2.5339999999999998</v>
+        <v>1.361</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E61">
-        <v>7.8929999999999998</v>
+        <v>15.43</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62">
-        <v>1.361</v>
+        <v>2.024</v>
       </c>
       <c r="D62">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E62">
-        <v>15.43</v>
+        <v>8.3989999999999991</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C63">
-        <v>2.024</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D63">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>8.3989999999999991</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C64">
-        <v>0.52300000000000002</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E64">
-        <v>9.56</v>
+        <v>9.8919999999999995</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C65">
-        <v>1.1120000000000001</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="D65">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E65">
-        <v>9.8919999999999995</v>
+        <v>5.6219999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C66">
-        <v>1.2450000000000001</v>
+        <v>1.7689999999999999</v>
       </c>
       <c r="D66">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E66">
-        <v>5.6219999999999999</v>
+        <v>7.9139999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C67">
-        <v>1.7689999999999999</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="D67">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E67">
-        <v>7.9139999999999997</v>
+        <v>7.7430000000000003</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C68">
-        <v>0.90400000000000003</v>
+        <v>1.2170000000000001</v>
       </c>
       <c r="D68">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E68">
-        <v>7.7430000000000003</v>
+        <v>7.3949999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C69">
-        <v>1.2170000000000001</v>
+        <v>1.597</v>
       </c>
       <c r="D69">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E69">
-        <v>7.3949999999999996</v>
+        <v>6.8879999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C70">
-        <v>1.597</v>
+        <v>1.002</v>
       </c>
       <c r="D70">
         <v>11</v>
       </c>
       <c r="E70">
-        <v>6.8879999999999999</v>
+        <v>10.978</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C71">
-        <v>1.002</v>
+        <v>2.08</v>
       </c>
       <c r="D71">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E71">
-        <v>10.978</v>
+        <v>9.1349999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C72">
-        <v>2.08</v>
+        <v>2.4569999999999999</v>
       </c>
       <c r="D72">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E72">
-        <v>9.1349999999999998</v>
+        <v>7.3259999999999996</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C73">
-        <v>2.4569999999999999</v>
+        <v>1.8160000000000001</v>
       </c>
       <c r="D73">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E73">
-        <v>7.3259999999999996</v>
+        <v>7.7089999999999996</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C74">
-        <v>1.8160000000000001</v>
+        <v>1.6060000000000001</v>
       </c>
       <c r="D74">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E74">
-        <v>7.7089999999999996</v>
+        <v>8.0950000000000006</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C75">
-        <v>1.6060000000000001</v>
+        <v>2.2320000000000002</v>
       </c>
       <c r="D75">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E75">
-        <v>8.0950000000000006</v>
+        <v>8.0649999999999995</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C76">
-        <v>2.2320000000000002</v>
+        <v>1.177</v>
       </c>
       <c r="D76">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E76">
-        <v>8.0649999999999995</v>
+        <v>6.7969999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C77">
-        <v>1.177</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D77">
         <v>8</v>
       </c>
       <c r="E77">
-        <v>6.7969999999999997</v>
+        <v>8.3510000000000009</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C78">
-        <v>0.95799999999999996</v>
+        <v>1.087</v>
       </c>
       <c r="D78">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E78">
-        <v>8.3510000000000009</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C79">
-        <v>1.087</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E79">
-        <v>9.1999999999999993</v>
+        <v>9.1859999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C80">
-        <v>0.76200000000000001</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="D80">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E80">
-        <v>9.1859999999999999</v>
+        <v>8.4390000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C81">
-        <v>0.71099999999999997</v>
+        <v>1.1839999999999999</v>
       </c>
       <c r="D81">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E81">
-        <v>8.4390000000000001</v>
+        <v>8.4459999999999997</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82">
-        <v>1.1839999999999999</v>
+        <v>1.3340000000000001</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E82">
-        <v>8.4459999999999997</v>
+        <v>9.7449999999999992</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C83">
-        <v>1.3340000000000001</v>
+        <v>1.4710000000000001</v>
       </c>
       <c r="D83">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E83">
-        <v>9.7449999999999992</v>
+        <v>10.877000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C84">
-        <v>1.4710000000000001</v>
+        <v>1.2430000000000001</v>
       </c>
       <c r="D84">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E84">
-        <v>10.877000000000001</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C85">
-        <v>1.2430000000000001</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="D85">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E85">
-        <v>8.85</v>
+        <v>8.8109999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C86">
-        <v>0.90800000000000003</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="D86">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E86">
-        <v>8.8109999999999999</v>
+        <v>9.8580000000000005</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C87">
-        <v>0.91300000000000003</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="D87">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E87">
-        <v>9.8580000000000005</v>
+        <v>9.9380000000000006</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C88">
-        <v>0.80500000000000005</v>
+        <v>0.7</v>
       </c>
       <c r="D88">
         <v>8</v>
       </c>
       <c r="E88">
-        <v>9.9380000000000006</v>
+        <v>11.429</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C89">
-        <v>0.7</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D89">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E89">
-        <v>11.429</v>
+        <v>13.529</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C90">
-        <v>0.88700000000000001</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="D90">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E90">
-        <v>13.529</v>
+        <v>10.223000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C91">
-        <v>1.0760000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D91">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E91">
-        <v>10.223000000000001</v>
+        <v>8.7149999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C92">
-        <v>1.4059999999999999</v>
+        <v>1.161</v>
       </c>
       <c r="D92">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E92">
-        <v>9.2460000000000004</v>
+        <v>8.6129999999999995</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C93">
-        <v>0.91800000000000004</v>
+        <v>1.22</v>
       </c>
       <c r="D93">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E93">
-        <v>8.7149999999999999</v>
+        <v>7.3769999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C94">
-        <v>1.161</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>8.6129999999999995</v>
+        <v>11.457000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C95">
-        <v>1.22</v>
+        <v>1.012</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95">
-        <v>7.3769999999999998</v>
+        <v>9.8810000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C96">
-        <v>0.61099999999999999</v>
+        <v>1.002</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E96">
-        <v>11.457000000000001</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="C97">
-        <v>1.012</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97">
-        <v>9.8810000000000002</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C98">
-        <v>1.002</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E98">
-        <v>9.98</v>
+        <v>9.7850000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C99">
-        <v>1.4570000000000001</v>
+        <v>1.375</v>
       </c>
       <c r="D99">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E99">
-        <v>7.55</v>
+        <v>10.182</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C100">
-        <v>0.51100000000000001</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E100">
-        <v>9.7850000000000001</v>
+        <v>6.3630000000000004</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C101">
-        <v>1.375</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="D101">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E101">
-        <v>10.182</v>
+        <v>7.2119999999999997</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C102">
-        <v>0.94299999999999995</v>
+        <v>1.7789999999999999</v>
       </c>
       <c r="D102">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E102">
-        <v>6.3630000000000004</v>
+        <v>7.3070000000000004</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C103">
-        <v>0.83199999999999996</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="D103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E103">
-        <v>7.2119999999999997</v>
+        <v>10.654</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C104">
-        <v>1.7789999999999999</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="D104">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E104">
-        <v>7.3070000000000004</v>
+        <v>8.8719999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C105">
-        <v>0.65700000000000003</v>
+        <v>1.4710000000000001</v>
       </c>
       <c r="D105">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E105">
-        <v>10.654</v>
+        <v>8.8379999999999992</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C106">
-        <v>0.78900000000000003</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="D106">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E106">
-        <v>8.8719999999999999</v>
+        <v>8.4749999999999996</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C107">
-        <v>1.4710000000000001</v>
+        <v>1.7410000000000001</v>
       </c>
       <c r="D107">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E107">
-        <v>8.8379999999999992</v>
+        <v>6.3179999999999996</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C108">
-        <v>0.70799999999999996</v>
+        <v>1.4730000000000001</v>
       </c>
       <c r="D108">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E108">
-        <v>8.4749999999999996</v>
+        <v>6.7889999999999997</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C109">
-        <v>1.7410000000000001</v>
+        <v>1.4259999999999999</v>
       </c>
       <c r="D109">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E109">
-        <v>6.3179999999999996</v>
+        <v>14.025</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C110">
-        <v>1.4730000000000001</v>
+        <v>2.0750000000000002</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E110">
-        <v>6.7889999999999997</v>
+        <v>7.2290000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C111">
-        <v>1.4259999999999999</v>
+        <v>1.496</v>
       </c>
       <c r="D111">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E111">
-        <v>14.025</v>
+        <v>12.701000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C112">
-        <v>2.0750000000000002</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D112">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>7.2290000000000001</v>
+        <v>8.9019999999999992</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C113">
-        <v>1.496</v>
+        <v>1.103</v>
       </c>
       <c r="D113">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E113">
-        <v>12.701000000000001</v>
+        <v>9.0660000000000007</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C114">
-        <v>0.33700000000000002</v>
+        <v>1.246</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E114">
-        <v>8.9019999999999992</v>
+        <v>12.039</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C115">
-        <v>1.103</v>
+        <v>1.395</v>
       </c>
       <c r="D115">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E115">
-        <v>9.0660000000000007</v>
+        <v>10.036</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C116">
-        <v>1.246</v>
+        <v>1.552</v>
       </c>
       <c r="D116">
         <v>15</v>
       </c>
       <c r="E116">
-        <v>12.039</v>
+        <v>9.6649999999999991</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C117">
-        <v>1.395</v>
+        <v>1.385</v>
       </c>
       <c r="D117">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E117">
-        <v>10.036</v>
+        <v>9.3859999999999992</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C118">
-        <v>1.552</v>
+        <v>1.5369999999999999</v>
       </c>
       <c r="D118">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E118">
-        <v>9.6649999999999991</v>
+        <v>13.012</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C119">
-        <v>1.385</v>
+        <v>1.085</v>
       </c>
       <c r="D119">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E119">
-        <v>9.3859999999999992</v>
+        <v>9.2170000000000005</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C120">
-        <v>1.5369999999999999</v>
+        <v>1.4279999999999999</v>
       </c>
       <c r="D120">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E120">
-        <v>13.012</v>
+        <v>10.504</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C121">
-        <v>1.085</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="D121">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E121">
-        <v>9.2170000000000005</v>
+        <v>9.5239999999999991</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C122">
-        <v>1.4279999999999999</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D122">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E122">
-        <v>10.504</v>
+        <v>7.9189999999999996</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C123">
-        <v>0.73499999999999999</v>
+        <v>1.64</v>
       </c>
       <c r="D123">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E123">
-        <v>9.5239999999999991</v>
+        <v>8.5370000000000008</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C124">
-        <v>0.88400000000000001</v>
+        <v>1.6140000000000001</v>
       </c>
       <c r="D124">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E124">
-        <v>7.9189999999999996</v>
+        <v>13.631</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C125">
-        <v>1.64</v>
+        <v>1.829</v>
       </c>
       <c r="D125">
         <v>14</v>
       </c>
       <c r="E125">
-        <v>8.5370000000000008</v>
+        <v>7.6539999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C126">
-        <v>1.6140000000000001</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="D126">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E126">
-        <v>13.631</v>
+        <v>5.5359999999999996</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C127">
-        <v>1.829</v>
+        <v>1.7310000000000001</v>
       </c>
       <c r="D127">
         <v>14</v>
       </c>
       <c r="E127">
-        <v>7.6539999999999999</v>
+        <v>8.0879999999999992</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C128">
-        <v>1.4450000000000001</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="D128">
         <v>8</v>
       </c>
       <c r="E128">
-        <v>5.5359999999999996</v>
+        <v>11.869</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C129">
-        <v>1.7310000000000001</v>
+        <v>1.4259999999999999</v>
       </c>
       <c r="D129">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E129">
-        <v>8.0879999999999992</v>
+        <v>14.025</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C130">
-        <v>0.67400000000000004</v>
+        <v>1.2030000000000001</v>
       </c>
       <c r="D130">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E130">
-        <v>11.869</v>
+        <v>10.805999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C131">
-        <v>1.4259999999999999</v>
+        <v>1.1160000000000001</v>
       </c>
       <c r="D131">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E131">
-        <v>14.025</v>
+        <v>8.0649999999999995</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C132">
-        <v>1.2030000000000001</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="D132">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E132">
-        <v>10.805999999999999</v>
+        <v>16.143999999999998</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C133">
-        <v>1.1160000000000001</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="D133">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E133">
-        <v>8.0649999999999995</v>
+        <v>10.786</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C134">
-        <v>1.3779999999999999</v>
+        <v>1.593</v>
       </c>
       <c r="D134">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E134">
-        <v>7.9829999999999997</v>
+        <v>7.5330000000000004</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C135">
-        <v>1.0529999999999999</v>
+        <v>1.206</v>
       </c>
       <c r="D135">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E135">
-        <v>16.143999999999998</v>
+        <v>10.779</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C136">
-        <v>0.64900000000000002</v>
+        <v>1.25</v>
       </c>
       <c r="D136">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E136">
-        <v>10.786</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C137">
-        <v>1.593</v>
+        <v>1.52</v>
       </c>
       <c r="D137">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E137">
-        <v>7.5330000000000004</v>
+        <v>8.5530000000000008</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C138">
-        <v>1.206</v>
+        <v>1.089</v>
       </c>
       <c r="D138">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E138">
-        <v>10.779</v>
+        <v>12.856</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C139">
-        <v>1.25</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D139">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E139">
-        <v>8.8000000000000007</v>
+        <v>10.204000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C140">
-        <v>1.52</v>
+        <v>1.048</v>
       </c>
       <c r="D140">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E140">
-        <v>8.5530000000000008</v>
+        <v>15.266999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C141">
-        <v>1.089</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="D141">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E141">
-        <v>12.856</v>
+        <v>9.8520000000000003</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C142">
-        <v>0.88200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D142">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142">
-        <v>10.204000000000001</v>
+        <v>9.0090000000000003</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C143">
-        <v>1.048</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D143">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E143">
-        <v>15.266999999999999</v>
+        <v>12.318</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C144">
-        <v>0.84699999999999998</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D144">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E144">
-        <v>10.625999999999999</v>
+        <v>10.619</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C145">
-        <v>0.81200000000000006</v>
+        <v>1.2969999999999999</v>
       </c>
       <c r="D145">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E145">
-        <v>9.8520000000000003</v>
+        <v>9.2520000000000007</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C146">
-        <v>0.82799999999999996</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="D146">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E146">
-        <v>16.908000000000001</v>
+        <v>7.8819999999999997</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C147">
-        <v>1.1100000000000001</v>
+        <v>1.9830000000000001</v>
       </c>
       <c r="D147">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E147">
-        <v>9.0090000000000003</v>
+        <v>7.5640000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C148">
-        <v>0.89300000000000002</v>
+        <v>2.121</v>
       </c>
       <c r="D148">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E148">
-        <v>12.318</v>
+        <v>6.601</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C149">
-        <v>1.282</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="D149">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E149">
-        <v>11.7</v>
+        <v>4.4640000000000004</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C150">
-        <v>1.1299999999999999</v>
+        <v>1.839</v>
       </c>
       <c r="D150">
         <v>12</v>
       </c>
       <c r="E150">
-        <v>10.619</v>
+        <v>6.5250000000000004</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C151">
-        <v>1.2969999999999999</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="D151">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E151">
-        <v>9.2520000000000007</v>
+        <v>7.9290000000000003</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C152">
-        <v>1.0149999999999999</v>
+        <v>1.593</v>
       </c>
       <c r="D152">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E152">
-        <v>7.8819999999999997</v>
+        <v>6.2770000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C153">
-        <v>1.9830000000000001</v>
+        <v>2.64</v>
       </c>
       <c r="D153">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E153">
-        <v>7.5640000000000001</v>
+        <v>5.3029999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C154">
-        <v>2.121</v>
+        <v>2.1589999999999998</v>
       </c>
       <c r="D154">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E154">
-        <v>6.601</v>
+        <v>6.0209999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C155">
-        <v>1.3440000000000001</v>
+        <v>1.746</v>
       </c>
       <c r="D155">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E155">
-        <v>4.4640000000000004</v>
+        <v>7.4459999999999997</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C156">
-        <v>1.839</v>
+        <v>1.909</v>
       </c>
       <c r="D156">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E156">
-        <v>6.5250000000000004</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C157">
-        <v>1.0089999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="D157">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E157">
-        <v>7.9290000000000003</v>
+        <v>5.7850000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C158">
-        <v>1.593</v>
+        <v>2.0379999999999998</v>
       </c>
       <c r="D158">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E158">
-        <v>6.2770000000000001</v>
+        <v>6.8689999999999998</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C159">
-        <v>2.64</v>
+        <v>1.9910000000000001</v>
       </c>
       <c r="D159">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E159">
-        <v>5.3029999999999999</v>
+        <v>6.5289999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C160">
-        <v>2.1589999999999998</v>
+        <v>1.254</v>
       </c>
       <c r="D160">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E160">
-        <v>6.0209999999999999</v>
+        <v>7.1769999999999996</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C161">
-        <v>1.746</v>
+        <v>1.7390000000000001</v>
       </c>
       <c r="D161">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E161">
-        <v>7.4459999999999997</v>
+        <v>6.3250000000000002</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C162">
-        <v>1.909</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="D162">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E162">
-        <v>6.81</v>
+        <v>5.5430000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C163">
-        <v>1.21</v>
+        <v>1.631</v>
       </c>
       <c r="D163">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E163">
-        <v>5.7850000000000001</v>
+        <v>6.1310000000000002</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C164">
-        <v>2.0379999999999998</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="D164">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E164">
-        <v>6.8689999999999998</v>
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C165">
-        <v>1.9910000000000001</v>
+        <v>1.234</v>
       </c>
       <c r="D165">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E165">
-        <v>6.5289999999999999</v>
+        <v>4.8620000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C166">
-        <v>1.254</v>
+        <v>1.24</v>
       </c>
       <c r="D166">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E166">
-        <v>7.1769999999999996</v>
+        <v>6.452</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C167">
-        <v>1.7390000000000001</v>
+        <v>1.59</v>
       </c>
       <c r="D167">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E167">
-        <v>6.3250000000000002</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C168">
-        <v>0.90200000000000002</v>
+        <v>0.79</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E168">
-        <v>5.5430000000000001</v>
+        <v>7.5949999999999998</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C169">
-        <v>1.631</v>
+        <v>1.748</v>
       </c>
       <c r="D169">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E169">
-        <v>6.1310000000000002</v>
+        <v>4.0049999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C170">
-        <v>0.92800000000000005</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="D170">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E170">
-        <v>4.3099999999999996</v>
+        <v>4.7389999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C171">
-        <v>1.234</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="D171">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E171">
-        <v>4.8620000000000001</v>
+        <v>9.0630000000000006</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C172">
-        <v>1.24</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="D172">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E172">
-        <v>6.452</v>
+        <v>6.508</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C173">
-        <v>1.59</v>
+        <v>1.151</v>
       </c>
       <c r="D173">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E173">
-        <v>5.66</v>
+        <v>5.2130000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C174">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="D174">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E174">
-        <v>7.5949999999999998</v>
+        <v>6.6120000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C175">
-        <v>1.748</v>
+        <v>2.0840000000000001</v>
       </c>
       <c r="D175">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E175">
-        <v>4.0049999999999999</v>
+        <v>5.2779999999999996</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C176">
-        <v>1.0549999999999999</v>
+        <v>1.8089999999999999</v>
       </c>
       <c r="D176">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E176">
-        <v>4.7389999999999999</v>
+        <v>6.633</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C177">
-        <v>0.99299999999999999</v>
+        <v>1.8879999999999999</v>
       </c>
       <c r="D177">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177">
-        <v>9.0630000000000006</v>
+        <v>5.2969999999999997</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C178">
-        <v>0.92200000000000004</v>
+        <v>1.714</v>
       </c>
       <c r="D178">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E178">
-        <v>6.508</v>
+        <v>9.3350000000000009</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C179">
-        <v>1.151</v>
+        <v>1.7290000000000001</v>
       </c>
       <c r="D179">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E179">
-        <v>5.2130000000000001</v>
+        <v>6.3620000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="C180">
-        <v>1.21</v>
+        <v>2.46</v>
       </c>
       <c r="D180">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E180">
-        <v>6.6120000000000001</v>
+        <v>5.6909999999999998</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C181">
-        <v>2.0840000000000001</v>
+        <v>2.4870000000000001</v>
       </c>
       <c r="D181">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E181">
-        <v>5.2779999999999996</v>
+        <v>4.8250000000000002</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C182">
-        <v>1.8089999999999999</v>
+        <v>2.609</v>
       </c>
       <c r="D182">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E182">
-        <v>6.633</v>
+        <v>4.2160000000000002</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B183" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C183">
-        <v>1.8879999999999999</v>
+        <v>2.831</v>
       </c>
       <c r="D183">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E183">
-        <v>5.2969999999999997</v>
+        <v>4.2389999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C184">
-        <v>1.714</v>
+        <v>1.8839999999999999</v>
       </c>
       <c r="D184">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E184">
-        <v>9.3350000000000009</v>
+        <v>5.8390000000000004</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B185" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C185">
-        <v>1.7290000000000001</v>
+        <v>1.603</v>
       </c>
       <c r="D185">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E185">
-        <v>6.3620000000000001</v>
+        <v>10.605</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B186" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C186">
-        <v>2.46</v>
+        <v>1.246</v>
       </c>
       <c r="D186">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E186">
-        <v>5.6909999999999998</v>
+        <v>7.2229999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C187">
-        <v>2.4870000000000001</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="D187">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E187">
-        <v>4.8250000000000002</v>
+        <v>6.141</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C188">
-        <v>1.71</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="D188">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E188">
-        <v>11.696</v>
+        <v>7.1120000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C189">
-        <v>2.609</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="D189">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E189">
-        <v>4.2160000000000002</v>
+        <v>5.0129999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C190">
-        <v>2.831</v>
+        <v>2.0049999999999999</v>
       </c>
       <c r="D190">
         <v>12</v>
       </c>
       <c r="E190">
-        <v>4.2389999999999999</v>
+        <v>5.9850000000000003</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B191" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C191">
-        <v>1.8839999999999999</v>
+        <v>1.9590000000000001</v>
       </c>
       <c r="D191">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E191">
-        <v>5.8390000000000004</v>
+        <v>5.1050000000000004</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B192" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C192">
-        <v>1.603</v>
+        <v>2.4489999999999998</v>
       </c>
       <c r="D192">
         <v>17</v>
       </c>
       <c r="E192">
-        <v>10.605</v>
+        <v>6.9420000000000002</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B193" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C193">
-        <v>1.246</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D193">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E193">
-        <v>7.2229999999999999</v>
+        <v>6.2830000000000004</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C194">
-        <v>0.97699999999999998</v>
+        <v>1.7130000000000001</v>
       </c>
       <c r="D194">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E194">
-        <v>6.141</v>
+        <v>7.0049999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B195" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C195">
-        <v>0.70299999999999996</v>
+        <v>1.7869999999999999</v>
       </c>
       <c r="D195">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E195">
-        <v>7.1120000000000001</v>
+        <v>8.9540000000000006</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C196">
-        <v>0.79800000000000004</v>
+        <v>1.873</v>
       </c>
       <c r="D196">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E196">
-        <v>5.0129999999999999</v>
+        <v>5.8730000000000002</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B197" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C197">
-        <v>2.0049999999999999</v>
+        <v>1.56</v>
       </c>
       <c r="D197">
         <v>12</v>
       </c>
       <c r="E197">
-        <v>5.9850000000000003</v>
+        <v>7.6920000000000002</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B198" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C198">
-        <v>1.9590000000000001</v>
+        <v>1.5980000000000001</v>
       </c>
       <c r="D198">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E198">
-        <v>5.1050000000000004</v>
+        <v>13.141</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B199" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C199">
-        <v>2.4489999999999998</v>
+        <v>1.61</v>
       </c>
       <c r="D199">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E199">
-        <v>6.9420000000000002</v>
+        <v>9.9380000000000006</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B200" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C200">
-        <v>0.95499999999999996</v>
+        <v>1.8340000000000001</v>
       </c>
       <c r="D200">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E200">
-        <v>6.2830000000000004</v>
+        <v>5.9980000000000002</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C201">
-        <v>1.7130000000000001</v>
+        <v>1.302</v>
       </c>
       <c r="D201">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E201">
-        <v>7.0049999999999999</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B202" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C202">
-        <v>1.7869999999999999</v>
+        <v>1.97</v>
       </c>
       <c r="D202">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E202">
-        <v>8.9540000000000006</v>
+        <v>6.0910000000000002</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B203" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C203">
-        <v>1.873</v>
+        <v>1.4139999999999999</v>
       </c>
       <c r="D203">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E203">
-        <v>5.8730000000000002</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B204" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C204">
-        <v>1.56</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="D204">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E204">
-        <v>7.6920000000000002</v>
+        <v>6.5309999999999997</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B205" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C205">
-        <v>1.5980000000000001</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="D205">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E205">
-        <v>13.141</v>
+        <v>12.212</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C206">
-        <v>1.61</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="D206">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E206">
-        <v>9.9380000000000006</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C207">
-        <v>1.8340000000000001</v>
+        <v>1.181</v>
       </c>
       <c r="D207">
         <v>11</v>
       </c>
       <c r="E207">
-        <v>5.9980000000000002</v>
+        <v>9.3140000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B208" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C208">
-        <v>1.302</v>
+        <v>2.06</v>
       </c>
       <c r="D208">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E208">
-        <v>7.68</v>
+        <v>9.7089999999999996</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B209" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C209">
-        <v>1.97</v>
+        <v>0.75</v>
       </c>
       <c r="D209">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E209">
-        <v>6.0910000000000002</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B210" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C210">
-        <v>1.4139999999999999</v>
+        <v>2.1640000000000001</v>
       </c>
       <c r="D210">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E210">
-        <v>4.95</v>
+        <v>8.7799999999999994</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B211" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C211">
-        <v>1.2250000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="D211">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E211">
-        <v>6.5309999999999997</v>
+        <v>7.6920000000000002</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B212" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C212">
-        <v>0.73699999999999999</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D212">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E212">
-        <v>12.212</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B213" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C213">
-        <v>0.94499999999999995</v>
+        <v>1.88</v>
       </c>
       <c r="D213">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E213">
-        <v>11.64</v>
+        <v>9.5739999999999998</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B214" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C214">
-        <v>1.181</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D214">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E214">
-        <v>9.3140000000000001</v>
+        <v>5.2169999999999996</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B215" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C215">
-        <v>2.06</v>
+        <v>1.6970000000000001</v>
       </c>
       <c r="D215">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E215">
-        <v>9.7089999999999996</v>
+        <v>6.4820000000000002</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B216" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C216">
-        <v>0.75</v>
+        <v>1.83</v>
       </c>
       <c r="D216">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E216">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217">
-        <v>218</v>
-      </c>
-      <c r="B217" t="s">
-        <v>219</v>
-      </c>
-      <c r="C217">
-        <v>2.1640000000000001</v>
-      </c>
-      <c r="D217">
-        <v>19</v>
-      </c>
-      <c r="E217">
-        <v>8.7799999999999994</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218">
-        <v>219</v>
-      </c>
-      <c r="B218" t="s">
-        <v>220</v>
-      </c>
-      <c r="C218">
-        <v>0.91</v>
-      </c>
-      <c r="D218">
-        <v>7</v>
-      </c>
-      <c r="E218">
-        <v>7.6920000000000002</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219">
-        <v>220</v>
-      </c>
-      <c r="B219" t="s">
-        <v>221</v>
-      </c>
-      <c r="C219">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="D219">
-        <v>5</v>
-      </c>
-      <c r="E219">
-        <v>5.78</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>221</v>
-      </c>
-      <c r="B220" t="s">
-        <v>222</v>
-      </c>
-      <c r="C220">
-        <v>1.88</v>
-      </c>
-      <c r="D220">
-        <v>18</v>
-      </c>
-      <c r="E220">
-        <v>9.5739999999999998</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <v>222</v>
-      </c>
-      <c r="B221" t="s">
-        <v>223</v>
-      </c>
-      <c r="C221">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D221">
-        <v>12</v>
-      </c>
-      <c r="E221">
-        <v>5.2169999999999996</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222">
-        <v>223</v>
-      </c>
-      <c r="B222" t="s">
-        <v>224</v>
-      </c>
-      <c r="C222">
-        <v>1.6970000000000001</v>
-      </c>
-      <c r="D222">
-        <v>11</v>
-      </c>
-      <c r="E222">
-        <v>6.4820000000000002</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223">
-        <v>224</v>
-      </c>
-      <c r="B223" t="s">
-        <v>225</v>
-      </c>
-      <c r="C223">
-        <v>1.83</v>
-      </c>
-      <c r="D223">
-        <v>18</v>
-      </c>
-      <c r="E223">
         <v>9.8360000000000003</v>
       </c>
     </row>
